--- a/ProcessingCheckListWss/bin/Debug/Result/Тезисы Бенза.xlsx
+++ b/ProcessingCheckListWss/bin/Debug/Result/Тезисы Бенза.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <x:si>
-    <x:t>Касание с компанией за период с 20.01 по 27.01</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <x:si>
+    <x:t>Касание с компанией за период с 28.01 по 12.02</x:t>
   </x:si>
   <x:si>
     <x:t>Менеджер</x:t>
@@ -25,142 +25,157 @@
     <x:t>Систематически невыполняемые пункты</x:t>
   </x:si>
   <x:si>
-    <x:t>Всего звонков с 21.01 по 27.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Всего звонков с 14.01 по 20.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Средний % c 21.01 по 27.01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Средний % c 14.01 по 20.01</x:t>
+    <x:t>Всего звонков с 04.02 по 10.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Всего звонков с 28.01 по 03.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Средний % c 04.02 по 10.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Средний % c 28.01 по 03.02</x:t>
   </x:si>
   <x:si>
     <x:t>Шутова</x:t>
   </x:si>
   <x:si>
-    <x:t>Уточнили как обращаться к клиенту либо/обратились по имени к клиенту  (96.5%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Попросил отправить реквизиты компании (92.9%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, что отправим счет и договор (если всё устраивает) (92.9%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Назначил дату следующего контакта (94.7%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнил цель звонка (отправить счет и договор)  (92.9%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, чем занимается наша компания  (95.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Предложил приобрести продукцию из другой линейки  (0.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Менеджер не озвучил цену по телефону (80.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Уточнил контактные данные (85.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, что отправил презентацию/каталог (85.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Когда вы сможете ознакомится с информацией (85.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнил цель звонка (выявил потребность, отправил презентацию/каталог)  (90.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сообщил о запуске ТРК в производство (0.0%) (этапы: ОТП )</x:t>
+    <x:t>Попросил отправить реквизиты компании (76.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, что отправим счет и договор (если всё устраивает) (76.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Назначил дату следующего контакта (97.4%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (отправить счет и договор)  (76.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Озвучил преимущества - Гарантийный срок 24 месяц (если у клиента сомнения) (98.9%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложил приобрести продукцию из другой линейки  (2.6%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Менеджер не озвучил цену по телефону (71.1%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Уточнил контактные данные (92.1%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, что отправил презентацию/каталог (92.1%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Когда вы сможете ознакомится с информацией (76.3%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (выявил потребность, отправил презентацию/каталог)  (89.5%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сообщил о запуске ТРК в производство (85.7%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (уточнил, когда оплатят счет)  (85.7%) (этапы: ОТП )</x:t>
   </x:si>
   <x:si>
     <x:t>Щетинина</x:t>
   </x:si>
   <x:si>
-    <x:t>Уточнили как обращаться к клиенту либо/обратились по имени к клиенту  (98.3%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Задать три вопроса согласия  (98.2%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Менеджер не озвучил цену по телефону (81.8%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Уточнил контактные данные (86.4%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, что отправил презентацию/каталог (86.4%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Когда вы сможете ознакомится с информацией (81.8%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Назначил дату следующего контакта (98.3%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнил цель звонка (выявил потребность, отправил презентацию/каталог)  (86.4%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Предложение отправить счет и договор (после возражений) (92.9%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Попросил отправить реквизиты компании (71.4%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, что отправим счет и договор (если всё устраивает) (71.4%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнил цель звонка (отправить счет и договор)  (71.4%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сообщил о запуске ТРК в производство (50.0%) (этапы: ОТП )</x:t>
+    <x:t>Представил компанию (99.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предоставить Аргумент, в пользу (от 1-до 3) баллы, зависят напрямую  (99.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Задать три вопроса согласия  (98.4%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Назначил дату следующего контакта (97.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, чем занимается наша компания  (97.4%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложил приобрести продукцию из другой линейки  (10.3%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Менеджер не озвучил цену по телефону (76.9%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Уточнил контактные данные (87.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, что отправил презентацию/каталог (87.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Когда вы сможете ознакомится с информацией (74.4%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (выявил потребность, отправил презентацию/каталог)  (87.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложение отправить счет и договор (после возражений) (92.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обсуждение ПНР (при необходимости) (96.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Попросил отправить реквизиты компании (64.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, что отправим счет и договор (если всё устраивает) (64.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (отправить счет и договор)  (60.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сообщил о запуске ТРК в производство (75.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (уточнил, когда оплатят счет)  (50.0%) (этапы: ОТП )</x:t>
   </x:si>
   <x:si>
     <x:t>Янина</x:t>
   </x:si>
   <x:si>
-    <x:t>Уточнили как обращаться к клиенту либо/обратились по имени к клиенту  (96.6%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Предоставить Аргумент, в пользу (от 1-до 3) баллы, зависят напрямую  (96.6%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Задать три вопроса согласия  (96.6%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Попросил отправить реквизиты компании (75.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, что отправим счет и договор (если всё устраивает) (75.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Назначил дату следующего контакта (79.3%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнил цель звонка (отправить счет и договор)  (75.0%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Предложение отправить презентацию/каталог (после возражений) (92.9%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Менеджер не озвучил цену по телефону (28.6%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Уточнил контактные данные (57.1%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сказал, что отправил презентацию/каталог (57.1%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Когда вы сможете ознакомится с информацией (57.1%) (этапы: ОТП )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнил цель звонка (выявил потребность, отправил презентацию/каталог)  (57.1%) (этапы: ОТП )</x:t>
+    <x:t>Представил компанию (98.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Задать три вопроса согласия  (98.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Попросил отправить реквизиты компании (90.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, что отправим счет и договор (если всё устраивает) (90.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Назначил дату следующего контакта (92.2%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (отправить счет и договор)  (90.0%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, чем занимается наша компания  (95.5%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Предложил приобрести продукцию из другой линейки  (4.5%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Менеджер не озвучил цену по телефону (72.7%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Уточнил контактные данные (72.7%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сказал, что отправил презентацию/каталог (63.6%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Когда вы сможете ознакомится с информацией (45.5%) (этапы: ОТП )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнил цель звонка (выявил потребность, отправил презентацию/каталог)  (63.6%) (этапы: ОТП )</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -187,7 +202,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="4">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -197,11 +212,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF66FF00"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF0000"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -241,7 +251,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="10">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -260,20 +270,14 @@
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="10" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="10" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="10" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="10" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="10">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -298,19 +302,11 @@
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -609,7 +605,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F43"/>
+  <x:dimension ref="A1:F46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -661,16 +657,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="4" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D3" s="5" t="n">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="6" t="n">
-        <x:v>0.9442</x:v>
+        <x:v>0.9625</x:v>
       </x:c>
       <x:c r="F3" s="7" t="n">
-        <x:v>0.9564</x:v>
+        <x:v>0.9524</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -800,175 +796,165 @@
       <x:c r="B16" s="3" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C16" s="8" t="n">
-        <x:v>32</x:v>
+      <x:c r="C16" s="4" t="n">
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D16" s="5" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E16" s="9" t="n">
-        <x:v>0.9468</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E16" s="6" t="n">
+        <x:v>0.9377</x:v>
       </x:c>
       <x:c r="F16" s="7" t="n">
-        <x:v>0.9342</x:v>
+        <x:v>0.9239</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s"/>
       <x:c r="B17" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C17" s="8" t="s"/>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C17" s="4" t="s"/>
       <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="9" t="s"/>
+      <x:c r="E17" s="6" t="s"/>
       <x:c r="F17" s="7" t="s"/>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s"/>
       <x:c r="B18" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C18" s="8" t="s"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C18" s="4" t="s"/>
       <x:c r="D18" s="3" t="s"/>
-      <x:c r="E18" s="9" t="s"/>
+      <x:c r="E18" s="6" t="s"/>
       <x:c r="F18" s="7" t="s"/>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s"/>
       <x:c r="B19" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C19" s="8" t="s"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C19" s="4" t="s"/>
       <x:c r="D19" s="3" t="s"/>
-      <x:c r="E19" s="9" t="s"/>
+      <x:c r="E19" s="6" t="s"/>
       <x:c r="F19" s="7" t="s"/>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1" t="s"/>
       <x:c r="B20" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C20" s="8" t="s"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C20" s="4" t="s"/>
       <x:c r="D20" s="3" t="s"/>
-      <x:c r="E20" s="9" t="s"/>
+      <x:c r="E20" s="6" t="s"/>
       <x:c r="F20" s="7" t="s"/>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1" t="s"/>
       <x:c r="B21" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C21" s="8" t="s"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C21" s="4" t="s"/>
       <x:c r="D21" s="3" t="s"/>
-      <x:c r="E21" s="9" t="s"/>
+      <x:c r="E21" s="6" t="s"/>
       <x:c r="F21" s="7" t="s"/>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1" t="s"/>
       <x:c r="B22" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C22" s="8" t="s"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C22" s="4" t="s"/>
       <x:c r="D22" s="3" t="s"/>
-      <x:c r="E22" s="9" t="s"/>
+      <x:c r="E22" s="6" t="s"/>
       <x:c r="F22" s="7" t="s"/>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1" t="s"/>
       <x:c r="B23" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C23" s="8" t="s"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C23" s="4" t="s"/>
       <x:c r="D23" s="3" t="s"/>
-      <x:c r="E23" s="9" t="s"/>
+      <x:c r="E23" s="6" t="s"/>
       <x:c r="F23" s="7" t="s"/>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1" t="s"/>
       <x:c r="B24" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C24" s="8" t="s"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C24" s="4" t="s"/>
       <x:c r="D24" s="3" t="s"/>
-      <x:c r="E24" s="9" t="s"/>
+      <x:c r="E24" s="6" t="s"/>
       <x:c r="F24" s="7" t="s"/>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="1" t="s"/>
       <x:c r="B25" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C25" s="8" t="s"/>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C25" s="4" t="s"/>
       <x:c r="D25" s="3" t="s"/>
-      <x:c r="E25" s="9" t="s"/>
+      <x:c r="E25" s="6" t="s"/>
       <x:c r="F25" s="7" t="s"/>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="1" t="s"/>
       <x:c r="B26" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C26" s="8" t="s"/>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C26" s="4" t="s"/>
       <x:c r="D26" s="3" t="s"/>
-      <x:c r="E26" s="9" t="s"/>
+      <x:c r="E26" s="6" t="s"/>
       <x:c r="F26" s="7" t="s"/>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="1" t="s"/>
       <x:c r="B27" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C27" s="8" t="s"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C27" s="4" t="s"/>
       <x:c r="D27" s="3" t="s"/>
-      <x:c r="E27" s="9" t="s"/>
+      <x:c r="E27" s="6" t="s"/>
       <x:c r="F27" s="7" t="s"/>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1" t="s"/>
       <x:c r="B28" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C28" s="8" t="s"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C28" s="4" t="s"/>
       <x:c r="D28" s="3" t="s"/>
-      <x:c r="E28" s="9" t="s"/>
+      <x:c r="E28" s="6" t="s"/>
       <x:c r="F28" s="7" t="s"/>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="1" t="s"/>
       <x:c r="B29" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C29" s="8" t="s"/>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C29" s="4" t="s"/>
       <x:c r="D29" s="3" t="s"/>
-      <x:c r="E29" s="9" t="s"/>
+      <x:c r="E29" s="6" t="s"/>
       <x:c r="F29" s="7" t="s"/>
     </x:row>
     <x:row r="30" spans="1:6">
-      <x:c r="A30" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
+      <x:c r="A30" s="1" t="s"/>
       <x:c r="B30" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C30" s="8" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D30" s="3" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E30" s="6" t="n">
-        <x:v>0.8807</x:v>
-      </x:c>
-      <x:c r="F30" s="7" t="n">
-        <x:v>0.9525</x:v>
-      </x:c>
+      <x:c r="C30" s="4" t="s"/>
+      <x:c r="D30" s="3" t="s"/>
+      <x:c r="E30" s="6" t="s"/>
+      <x:c r="F30" s="7" t="s"/>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="1" t="s"/>
       <x:c r="B31" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C31" s="8" t="s"/>
+      <x:c r="C31" s="4" t="s"/>
       <x:c r="D31" s="3" t="s"/>
       <x:c r="E31" s="6" t="s"/>
       <x:c r="F31" s="7" t="s"/>
@@ -978,7 +964,7 @@
       <x:c r="B32" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C32" s="8" t="s"/>
+      <x:c r="C32" s="4" t="s"/>
       <x:c r="D32" s="3" t="s"/>
       <x:c r="E32" s="6" t="s"/>
       <x:c r="F32" s="7" t="s"/>
@@ -988,27 +974,37 @@
       <x:c r="B33" s="3" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C33" s="8" t="s"/>
+      <x:c r="C33" s="4" t="s"/>
       <x:c r="D33" s="3" t="s"/>
       <x:c r="E33" s="6" t="s"/>
       <x:c r="F33" s="7" t="s"/>
     </x:row>
     <x:row r="34" spans="1:6">
-      <x:c r="A34" s="1" t="s"/>
+      <x:c r="A34" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C34" s="8" t="s"/>
-      <x:c r="D34" s="3" t="s"/>
-      <x:c r="E34" s="6" t="s"/>
-      <x:c r="F34" s="7" t="s"/>
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C34" s="4" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D34" s="3" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E34" s="6" t="n">
+        <x:v>0.9279</x:v>
+      </x:c>
+      <x:c r="F34" s="7" t="n">
+        <x:v>0.9186</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="1" t="s"/>
       <x:c r="B35" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C35" s="8" t="s"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C35" s="4" t="s"/>
       <x:c r="D35" s="3" t="s"/>
       <x:c r="E35" s="6" t="s"/>
       <x:c r="F35" s="7" t="s"/>
@@ -1016,9 +1012,9 @@
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="1" t="s"/>
       <x:c r="B36" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C36" s="8" t="s"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C36" s="4" t="s"/>
       <x:c r="D36" s="3" t="s"/>
       <x:c r="E36" s="6" t="s"/>
       <x:c r="F36" s="7" t="s"/>
@@ -1026,9 +1022,9 @@
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="1" t="s"/>
       <x:c r="B37" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C37" s="8" t="s"/>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C37" s="4" t="s"/>
       <x:c r="D37" s="3" t="s"/>
       <x:c r="E37" s="6" t="s"/>
       <x:c r="F37" s="7" t="s"/>
@@ -1036,9 +1032,9 @@
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="1" t="s"/>
       <x:c r="B38" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C38" s="8" t="s"/>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C38" s="4" t="s"/>
       <x:c r="D38" s="3" t="s"/>
       <x:c r="E38" s="6" t="s"/>
       <x:c r="F38" s="7" t="s"/>
@@ -1046,9 +1042,9 @@
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="1" t="s"/>
       <x:c r="B39" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C39" s="8" t="s"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C39" s="4" t="s"/>
       <x:c r="D39" s="3" t="s"/>
       <x:c r="E39" s="6" t="s"/>
       <x:c r="F39" s="7" t="s"/>
@@ -1056,9 +1052,9 @@
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="1" t="s"/>
       <x:c r="B40" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C40" s="8" t="s"/>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C40" s="4" t="s"/>
       <x:c r="D40" s="3" t="s"/>
       <x:c r="E40" s="6" t="s"/>
       <x:c r="F40" s="7" t="s"/>
@@ -1066,9 +1062,9 @@
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="1" t="s"/>
       <x:c r="B41" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C41" s="8" t="s"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C41" s="4" t="s"/>
       <x:c r="D41" s="3" t="s"/>
       <x:c r="E41" s="6" t="s"/>
       <x:c r="F41" s="7" t="s"/>
@@ -1076,9 +1072,9 @@
     <x:row r="42" spans="1:6">
       <x:c r="A42" s="1" t="s"/>
       <x:c r="B42" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C42" s="8" t="s"/>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C42" s="4" t="s"/>
       <x:c r="D42" s="3" t="s"/>
       <x:c r="E42" s="6" t="s"/>
       <x:c r="F42" s="7" t="s"/>
@@ -1086,12 +1082,42 @@
     <x:row r="43" spans="1:6">
       <x:c r="A43" s="1" t="s"/>
       <x:c r="B43" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C43" s="8" t="s"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C43" s="4" t="s"/>
       <x:c r="D43" s="3" t="s"/>
       <x:c r="E43" s="6" t="s"/>
       <x:c r="F43" s="7" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="1" t="s"/>
+      <x:c r="B44" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C44" s="4" t="s"/>
+      <x:c r="D44" s="3" t="s"/>
+      <x:c r="E44" s="6" t="s"/>
+      <x:c r="F44" s="7" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="1" t="s"/>
+      <x:c r="B45" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C45" s="4" t="s"/>
+      <x:c r="D45" s="3" t="s"/>
+      <x:c r="E45" s="6" t="s"/>
+      <x:c r="F45" s="7" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="1" t="s"/>
+      <x:c r="B46" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C46" s="4" t="s"/>
+      <x:c r="D46" s="3" t="s"/>
+      <x:c r="E46" s="6" t="s"/>
+      <x:c r="F46" s="7" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="16">
@@ -1100,16 +1126,16 @@
     <x:mergeCell ref="E3:E15"/>
     <x:mergeCell ref="D3:D15"/>
     <x:mergeCell ref="F3:F15"/>
-    <x:mergeCell ref="A16:A29"/>
-    <x:mergeCell ref="C16:C29"/>
-    <x:mergeCell ref="E16:E29"/>
-    <x:mergeCell ref="D16:D29"/>
-    <x:mergeCell ref="F16:F29"/>
-    <x:mergeCell ref="A30:A43"/>
-    <x:mergeCell ref="C30:C43"/>
-    <x:mergeCell ref="E30:E43"/>
-    <x:mergeCell ref="D30:D43"/>
-    <x:mergeCell ref="F30:F43"/>
+    <x:mergeCell ref="A16:A33"/>
+    <x:mergeCell ref="C16:C33"/>
+    <x:mergeCell ref="E16:E33"/>
+    <x:mergeCell ref="D16:D33"/>
+    <x:mergeCell ref="F16:F33"/>
+    <x:mergeCell ref="A34:A46"/>
+    <x:mergeCell ref="C34:C46"/>
+    <x:mergeCell ref="E34:E46"/>
+    <x:mergeCell ref="D34:D46"/>
+    <x:mergeCell ref="F34:F46"/>
     <x:mergeCell ref="A1:F1"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
